--- a/output/ridership_activity_center_walkshed_quarter_mi_bg.xlsx
+++ b/output/ridership_activity_center_walkshed_quarter_mi_bg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perkinswillinc-my.sharepoint.com/personal/ykweon_nelsonnygaard_com/Documents/Documents/github/NN/R/woodburn-transit/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_C2CE303C4699E00155D734FF050A53129275BABB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD509CE5-E66D-4A0A-8268-4EF684808D70}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_C2CE303C4699E00155D734FF050A53129275BABB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE2B74B-D270-4619-9FB5-A76F6DA9DDAA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +398,7 @@
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="24.21875" customWidth="1"/>
+    <col min="10" max="10" width="44.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
